--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_2_0.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_2_0.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_24</t>
+          <t>model_2_0_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997602679535912</v>
+        <v>0.9999533156460187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998763379082775</v>
+        <v>0.9990797478767492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995517947587048</v>
+        <v>0.9999621649584605</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996680353312205</v>
+        <v>0.9999396598123795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996883348053259</v>
+        <v>0.9999554489173774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002237793423019794</v>
+        <v>4.357779523518634e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001154331344844799</v>
+        <v>0.0008590149626548978</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002338101157934902</v>
+        <v>5.318277447885304e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001640385986553356</v>
+        <v>5.460147694039208e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001989243572244129</v>
+        <v>5.389212570962256e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001836351572890823</v>
+        <v>0.0007589328778672816</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01495925607448376</v>
+        <v>0.006601347986221173</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9980821436287295</v>
+        <v>0.99962652516815</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01559610257550359</v>
+        <v>0.006882381036668792</v>
       </c>
       <c r="P2" t="n">
-        <v>58.80970014125491</v>
+        <v>62.08192564186973</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.40609246348711</v>
+        <v>87.67831796410194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_23</t>
+          <t>model_2_0_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997011149527973</v>
+        <v>0.9999821372092292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9987067406238711</v>
+        <v>0.9990448786068984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9994580068656551</v>
+        <v>0.9999763003898657</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995438876391627</v>
+        <v>0.9999722126791996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99960195020093</v>
+        <v>0.9999758372585562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002789960720264239</v>
+        <v>1.66741310986568e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001207200860090598</v>
+        <v>0.000891563895476693</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002827353761733498</v>
+        <v>3.331332462497148e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002253855290570766</v>
+        <v>2.514458134376816e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002540604526152132</v>
+        <v>2.922895298436982e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002061074840344448</v>
+        <v>0.000429172753560984</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0167031755072628</v>
+        <v>0.004083397004781288</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9976089196223787</v>
+        <v>0.9998570976738339</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01741426426894693</v>
+        <v>0.004257235669071922</v>
       </c>
       <c r="P3" t="n">
-        <v>58.3686257100007</v>
+        <v>64.00330415109367</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.9650180322329</v>
+        <v>89.59969647332588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_22</t>
+          <t>model_2_0_13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996271427877969</v>
+        <v>0.999982914061343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998635564859208</v>
+        <v>0.9990407662447762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9993423949858868</v>
+        <v>0.9999722724262848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993791903311223</v>
+        <v>0.9999732429663195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9994909503118511</v>
+        <v>0.9999738823455321</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003480458410515342</v>
+        <v>1.594897375034186e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001273640312148643</v>
+        <v>0.0008954026050058175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003430453067703462</v>
+        <v>3.897522613252681e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003067698393590875</v>
+        <v>2.421228065589092e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003249075730647168</v>
+        <v>3.159375339420887e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002310528875668254</v>
+        <v>0.0004047835822705994</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01865598673486702</v>
+        <v>0.003993616625358756</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9970171423023748</v>
+        <v>0.9998633124907439</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01945021071338678</v>
+        <v>0.004163633153026367</v>
       </c>
       <c r="P4" t="n">
-        <v>57.92635271941096</v>
+        <v>64.09223214494958</v>
       </c>
       <c r="Q4" t="n">
-        <v>83.52274504164316</v>
+        <v>89.6886244671818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_21</t>
+          <t>model_2_0_14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995346653120283</v>
+        <v>0.9999807783588048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985462228193275</v>
+        <v>0.9990198439726814</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992000688709524</v>
+        <v>0.9999441424289799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991618891212449</v>
+        <v>0.9999718756337894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9993486704854132</v>
+        <v>0.9999570272651942</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004343695053894924</v>
+        <v>1.794255832317389e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001357037184714784</v>
+        <v>0.0009149326276247416</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004172909477117702</v>
+        <v>7.85161184346256e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0004141480916455413</v>
+        <v>2.544957173098932e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004157195196786557</v>
+        <v>5.198284508280745e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002587893957568564</v>
+        <v>0.0003082188954468119</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02084153318231392</v>
+        <v>0.004235865711182767</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9962773224962262</v>
+        <v>0.9998462268704387</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02172880039780635</v>
+        <v>0.004416195283958645</v>
       </c>
       <c r="P5" t="n">
-        <v>57.48322998237652</v>
+        <v>63.85667021417481</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.07962230460873</v>
+        <v>89.45306253640702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_20</t>
+          <t>model_2_0_10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994192145815977</v>
+        <v>0.9998404374689769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9984344202976764</v>
+        <v>0.9990140303263852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9990242755804113</v>
+        <v>0.9998782420671956</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9988783366984139</v>
+        <v>0.9998217965463309</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9991670682087158</v>
+        <v>0.9998626055002834</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0005421376945451118</v>
+        <v>0.0001489446187244733</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001461399931112597</v>
+        <v>0.0009203594112526123</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005089950284100234</v>
+        <v>0.0001711488719943256</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005542640330725326</v>
+        <v>0.0001612552454661457</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000531629530741278</v>
+        <v>0.0001662020587302357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002896212668722446</v>
+        <v>0.001378797842421169</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02328385050942201</v>
+        <v>0.01220428689946583</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9953537166527813</v>
+        <v>0.9987234997518151</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02427509222982327</v>
+        <v>0.01272384865913276</v>
       </c>
       <c r="P6" t="n">
-        <v>57.03998107962677</v>
+        <v>59.62387201504852</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.63637340185898</v>
+        <v>85.22026433728072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_19</t>
+          <t>model_2_0_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999275144020873</v>
+        <v>0.9999782602081376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982944097267019</v>
+        <v>0.999010273533009</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9988076930524374</v>
+        <v>0.9999305605583743</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9985100285479326</v>
+        <v>0.999969371023114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.998935988165216</v>
+        <v>0.9999481993459248</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006766212390148036</v>
+        <v>2.029314143693368e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001592093653363468</v>
+        <v>0.0009238662129652207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006219771653392413</v>
+        <v>9.760745630644932e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007362615724504955</v>
+        <v>2.771597903649788e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006791193688948684</v>
+        <v>6.26617176714736e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00323919818907729</v>
+        <v>0.0002696658254261556</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02601194416061213</v>
+        <v>0.004504790942644695</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9942011521669842</v>
+        <v>0.999826081665101</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02711932647567693</v>
+        <v>0.004696569219275881</v>
       </c>
       <c r="P7" t="n">
-        <v>56.5967978226221</v>
+        <v>63.61045517850748</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.19319014485431</v>
+        <v>89.20684750073968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_18</t>
+          <t>model_2_0_16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990957831202978</v>
+        <v>0.999975272617601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9981196770760095</v>
+        <v>0.9990019071166288</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9985399362054386</v>
+        <v>0.9999193997458767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.998038905938089</v>
+        <v>0.9999660269373443</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986441958834648</v>
+        <v>0.9999404640883487</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00084404676666818</v>
+        <v>2.308192606284616e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001755198912907957</v>
+        <v>0.0009316758954128508</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007616548255566617</v>
+        <v>0.0001132956371541262</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0009690643372679952</v>
+        <v>3.074202236262131e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0008653595814123284</v>
+        <v>7.201882975837377e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003620068267124045</v>
+        <v>0.0002570365929971796</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02905248296907133</v>
+        <v>0.004804365313217361</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9927662649623823</v>
+        <v>0.999802180940808</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03028930731599527</v>
+        <v>0.005008897091008263</v>
       </c>
       <c r="P8" t="n">
-        <v>56.1546053083183</v>
+        <v>63.35292133641963</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.7509976305505</v>
+        <v>88.94931365865183</v>
       </c>
     </row>
     <row r="9">
@@ -907,437 +907,437 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9988727895445713</v>
+        <v>0.9999735971388276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9979018884223687</v>
+        <v>0.9990001727689976</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9982099170042912</v>
+        <v>0.9999135892500037</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9974368438035871</v>
+        <v>0.9999641669437888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9982762729366637</v>
+        <v>0.9999363924781238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001052201481322276</v>
+        <v>2.464591195271875e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001958495061264594</v>
+        <v>0.0009332948327976398</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009338121778700048</v>
+        <v>0.0001214631527441774</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001266570180917663</v>
+        <v>3.242511946975858e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001100191179393834</v>
+        <v>7.694413610696797e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004043011100325553</v>
+        <v>0.0002613093156960649</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03243765529939358</v>
+        <v>0.00496446492108855</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9909823163565701</v>
+        <v>0.9997887771106209</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03381859344069209</v>
+        <v>0.005175812470638405</v>
       </c>
       <c r="P9" t="n">
-        <v>55.71374132167037</v>
+        <v>63.22179902986451</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.31013364390257</v>
+        <v>88.81819135209672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_16</t>
+          <t>model_2_0_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9969343830194078</v>
+        <v>0.9999734701115667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9962822199266869</v>
+        <v>0.9989998670173527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9953926912279728</v>
+        <v>0.9999132157032017</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9921857593486898</v>
+        <v>0.9999639261770463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9950922986516281</v>
+        <v>0.9999360853928431</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002861618886349671</v>
+        <v>2.476448632499638e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003470384506753351</v>
+        <v>0.0009335802385371855</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002403442214042604</v>
+        <v>0.0001219882282964964</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003861366002319726</v>
+        <v>3.264298786319876e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003132404108181165</v>
+        <v>7.731560807984758e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006688488902654316</v>
+        <v>0.0002615744545140628</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05349410141641479</v>
+        <v>0.004976392902996746</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9754750641552627</v>
+        <v>0.9997877608925334</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05577145606176732</v>
+        <v>0.005188248251430759</v>
       </c>
       <c r="P10" t="n">
-        <v>53.71273554022949</v>
+        <v>63.2121998682278</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.30912786246169</v>
+        <v>88.80859219046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_15</t>
+          <t>model_2_0_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.996332749549411</v>
+        <v>0.9999728640286999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9957399837360795</v>
+        <v>0.9989985433702009</v>
       </c>
       <c r="D11" t="n">
-        <v>0.99456836089085</v>
+        <v>0.9999113827374826</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9904611099716784</v>
+        <v>0.9999628512889767</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9940878181527597</v>
+        <v>0.9999346183958837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003423217321934523</v>
+        <v>2.533023807714512e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003976538189267423</v>
+        <v>0.0009348158050519836</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002833461218322458</v>
+        <v>0.0001245647340566907</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004713592439599654</v>
+        <v>3.361564768518077e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003773526828961057</v>
+        <v>7.909019087093572e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007308564568051812</v>
+        <v>0.0002643219627845681</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05850826712469378</v>
+        <v>0.005032915464931348</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9706619963952878</v>
+        <v>0.9997829122295991</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06099908518500167</v>
+        <v>0.005247177095844749</v>
       </c>
       <c r="P11" t="n">
-        <v>53.35434886543197</v>
+        <v>63.16702338995221</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.95074118766418</v>
+        <v>88.76341571218441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_14</t>
+          <t>model_2_0_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9954666173316243</v>
+        <v>0.999972567201207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9949169482721725</v>
+        <v>0.9989983244973205</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9933731863825118</v>
+        <v>0.9999103473314314</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9879544575700192</v>
+        <v>0.9999625448317156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9926290760460805</v>
+        <v>0.9999339021972967</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004231713728427999</v>
+        <v>2.560731351257319e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004744805667743182</v>
+        <v>0.0009350201132783946</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003456934271382812</v>
+        <v>0.0001260201511588688</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005952241566917852</v>
+        <v>3.389295903819244e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004704587919150332</v>
+        <v>7.99565550985306e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008119953109884092</v>
+        <v>0.0002655866660720699</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06505162356488882</v>
+        <v>0.00506036693457828</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9637329386529947</v>
+        <v>0.9997805376096558</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06782100585547095</v>
+        <v>0.005275797231386929</v>
       </c>
       <c r="P12" t="n">
-        <v>52.93029646245095</v>
+        <v>63.14526512638759</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.52668878468316</v>
+        <v>88.74165744861979</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_13</t>
+          <t>model_2_0_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9943788486537485</v>
+        <v>0.9999719668004051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9938766148860044</v>
+        <v>0.9989958914393673</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9918680898280605</v>
+        <v>0.9999088801530277</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9847653453409423</v>
+        <v>0.9999609461558771</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9907795017490314</v>
+        <v>0.9999324518147819</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005247098041698584</v>
+        <v>2.616776130660422e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005715911218373121</v>
+        <v>0.0009372912660787871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00424208082312708</v>
+        <v>0.00012808248847863</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007528124635847264</v>
+        <v>3.533959129737855e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005885102729487172</v>
+        <v>8.171103988800429e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009036785876164615</v>
+        <v>0.0002683121119902325</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07243685554811573</v>
+        <v>0.005115443412511199</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9550307892299879</v>
+        <v>0.999775734403241</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07552064245376158</v>
+        <v>0.005333218429009478</v>
       </c>
       <c r="P13" t="n">
-        <v>52.50016021833114</v>
+        <v>63.1019647786912</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.09655254056335</v>
+        <v>88.6983571009234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_12</t>
+          <t>model_2_0_22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9930347668653762</v>
+        <v>0.9999716399501679</v>
       </c>
       <c r="C14" t="n">
-        <v>0.992584310690489</v>
+        <v>0.9989948730748991</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9900222108745627</v>
+        <v>0.999908078455006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9807640499283895</v>
+        <v>0.9999600808264707</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9884762679586081</v>
+        <v>0.9999316623695035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006501739392772354</v>
+        <v>2.647286165598488e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006922220459288577</v>
+        <v>0.0009382418646088578</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005204999441862868</v>
+        <v>0.0001292093942083218</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00950534376188973</v>
+        <v>3.612262273114466e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007355171601876299</v>
+        <v>8.266600846973323e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01005287669891958</v>
+        <v>0.0002704050797918272</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08063336401746088</v>
+        <v>0.005145178486309769</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9442781349230094</v>
+        <v>0.9997731196013433</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08406609325775835</v>
+        <v>0.005364219386459742</v>
       </c>
       <c r="P14" t="n">
-        <v>52.07137107798138</v>
+        <v>63.07878087632472</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.66776340021357</v>
+        <v>88.67517319855693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_11</t>
+          <t>model_2_0_23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9913645940833443</v>
+        <v>0.9999713373803218</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9909758615811095</v>
+        <v>0.998993734859594</v>
       </c>
       <c r="D15" t="n">
-        <v>0.98771330113706</v>
+        <v>0.9999075765014922</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9757482096712229</v>
+        <v>0.9999589084652782</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9855910828285765</v>
+        <v>0.9999309322396476</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008060772372686929</v>
+        <v>2.675529732597504e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008423637100138388</v>
+        <v>0.0009393043386343065</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0064094620481505</v>
+        <v>0.0001299149644795169</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01198389489773714</v>
+        <v>3.718348540224165e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.009196678472943819</v>
+        <v>8.354922494087926e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01118693610225912</v>
+        <v>0.0002733096349838611</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08978180424054158</v>
+        <v>0.005172552302874766</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9309167526667546</v>
+        <v>0.9997706990425748</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09360400152101758</v>
+        <v>0.005392758563067522</v>
       </c>
       <c r="P15" t="n">
-        <v>51.64149179835601</v>
+        <v>63.05755614670042</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.23788412058822</v>
+        <v>88.65394846893263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_10</t>
+          <t>model_2_0_24</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9892994649450592</v>
+        <v>0.9999711689266716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9889759419661694</v>
+        <v>0.9989935489960614</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9848605930757167</v>
+        <v>0.9999070337870941</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9695563596041947</v>
+        <v>0.9999586653483727</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9820284370239684</v>
+        <v>0.9999305259881601</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009988479774583612</v>
+        <v>2.691254141425596e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01029047427435973</v>
+        <v>0.0009394778340834213</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007897601723224925</v>
+        <v>0.0001306778302320448</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0150435651084664</v>
+        <v>3.740348044422358e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01147058341584566</v>
+        <v>8.404065533813417e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01244707368726552</v>
+        <v>0.0002741457341836236</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09994238227390626</v>
+        <v>0.005187729890256041</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9143957195604733</v>
+        <v>0.9997693514133728</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1041971363965587</v>
+        <v>0.005408582291765556</v>
       </c>
       <c r="P16" t="n">
-        <v>51.21264574523556</v>
+        <v>63.04583631285327</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.80903806746775</v>
+        <v>88.64222863508547</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9867509695195501</v>
+        <v>0.9998010809406569</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9864871889383819</v>
+        <v>0.9989898020649098</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9813903166839537</v>
+        <v>0.9998412126584395</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9618545949839683</v>
+        <v>0.9997813781358387</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9776289291387573</v>
+        <v>0.9998259737378132</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01236738838827598</v>
+        <v>0.0001856822103592765</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01261361598216715</v>
+        <v>0.0009429754298422089</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009707901224963952</v>
+        <v>0.0002231992098512461</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01884935167039229</v>
+        <v>0.000197829624756033</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01427862644767812</v>
+        <v>0.0002105144173036396</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0138405669579488</v>
+        <v>0.001538183338568806</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1112087603935768</v>
+        <v>0.01362652598277626</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8940077561564008</v>
+        <v>0.9984086475252552</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1159431475574015</v>
+        <v>0.01420663540466048</v>
       </c>
       <c r="P17" t="n">
-        <v>50.7853844790036</v>
+        <v>59.18294778387339</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.3817768012358</v>
+        <v>84.77934010610559</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9835059325599506</v>
+        <v>0.998743109690841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9833225864071464</v>
+        <v>0.9978964410284801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9768681859269256</v>
+        <v>0.9989857019436529</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9519769012767334</v>
+        <v>0.9979878146696359</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9719572710221491</v>
+        <v>0.9986580802378938</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01539648794940216</v>
+        <v>0.001173251932491696</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0155676335350789</v>
+        <v>0.001963579964346615</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0120669095955012</v>
+        <v>0.001425746677949263</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0237303621696081</v>
+        <v>0.001820814539170482</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01789863588255465</v>
+        <v>0.001623280608559873</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0154374011663925</v>
+        <v>0.00409755571447468</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1240825851979324</v>
+        <v>0.03425276532619952</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8680474604796045</v>
+        <v>0.9899448775267281</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1293650377361697</v>
+        <v>0.0357109764591349</v>
       </c>
       <c r="P18" t="n">
-        <v>50.34723170160946</v>
+        <v>55.49595191232831</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.94362402384166</v>
+        <v>81.09234423456051</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9794107182391221</v>
+        <v>0.9958728428158349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9793136685936631</v>
+        <v>0.9947921414824504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9711310742184946</v>
+        <v>0.9964997838688288</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9395616550235835</v>
+        <v>0.9929917143613519</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9648068153154946</v>
+        <v>0.9953450832269298</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01921919075876246</v>
+        <v>0.003852520070155425</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01930978234281135</v>
+        <v>0.004861307327563764</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01505972322033104</v>
+        <v>0.004920074025473632</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02986529094023698</v>
+        <v>0.00634175599680039</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02246250708028402</v>
+        <v>0.005630915011137011</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01724474044079913</v>
+        <v>0.007363843527844102</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1386332959961728</v>
+        <v>0.0620686722119575</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8352857459129766</v>
+        <v>0.966982742526679</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1445352024172149</v>
+        <v>0.06471106408788478</v>
       </c>
       <c r="P19" t="n">
-        <v>49.90369196089811</v>
+        <v>53.11805556227815</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.50008428313032</v>
+        <v>78.71444788451036</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9743239463957531</v>
+        <v>0.9950668030622919</v>
       </c>
       <c r="C20" t="n">
-        <v>0.974316545379355</v>
+        <v>0.9939801110677465</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9640617824049742</v>
+        <v>0.9957759435316054</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9240126066268282</v>
+        <v>0.9915721527159189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9558988590675213</v>
+        <v>0.9943935768983012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02396746899106934</v>
+        <v>0.004604922799031774</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02397437751500992</v>
+        <v>0.005619302075674158</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01874748004513027</v>
+        <v>0.005937539207136779</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03754877159137206</v>
+        <v>0.007626308887753795</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02814812581825117</v>
+        <v>0.006781924047445286</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01925188374988581</v>
+        <v>0.008023364079475513</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1548143048657628</v>
+        <v>0.06785958148288106</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7945915711660252</v>
+        <v>0.9605344244983351</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1614050703336893</v>
+        <v>0.07074850435530632</v>
       </c>
       <c r="P20" t="n">
-        <v>49.46211565360949</v>
+        <v>52.76125874802437</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.05850797584169</v>
+        <v>78.35765107025658</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9595008951705525</v>
+        <v>0.9938046187088584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9596683676521185</v>
+        <v>0.9926681689412395</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9431800014045012</v>
+        <v>0.9946711525700144</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8783796089527257</v>
+        <v>0.9894356768428383</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9297008281487852</v>
+        <v>0.992952592546922</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03780413665304472</v>
+        <v>0.005783116489471993</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03764780844269518</v>
+        <v>0.006843942463164781</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02964064055254882</v>
+        <v>0.007490487113780182</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06009807787274057</v>
+        <v>0.009559593199884439</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04486935921264469</v>
+        <v>0.00852504015683231</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02416460070384107</v>
+        <v>0.009016847256343483</v>
       </c>
       <c r="M21" t="n">
-        <v>0.194432858984907</v>
+        <v>0.07604680459737932</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6760071613644199</v>
+        <v>0.9504369496708671</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2027102683233986</v>
+        <v>0.07928427450767704</v>
       </c>
       <c r="P21" t="n">
-        <v>48.55067349415692</v>
+        <v>52.30562511315222</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.14706581638913</v>
+        <v>77.90201743538444</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.948937097249777</v>
+        <v>0.9925128323449273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9491828612497155</v>
+        <v>0.9913489619026691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9281540371405226</v>
+        <v>0.9935053428826829</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8458009363794401</v>
+        <v>0.9872536892882897</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9109491505255517</v>
+        <v>0.9914591335136124</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04766497831495143</v>
+        <v>0.006988942357333774</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0474355684088017</v>
+        <v>0.008075364327173843</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03747906393715125</v>
+        <v>0.0091292059089438</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07619665792531405</v>
+        <v>0.01153406076192174</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05683786093123264</v>
+        <v>0.01033163333543277</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02715519541105475</v>
+        <v>0.009881561608176645</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2183231053162982</v>
+        <v>0.08359989448159474</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5914967779982163</v>
+        <v>0.9401026587594181</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2276175719007447</v>
+        <v>0.08715891506531502</v>
       </c>
       <c r="P22" t="n">
-        <v>48.08711671596739</v>
+        <v>51.92685208429663</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.68350903819959</v>
+        <v>77.52324440652885</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9240834706135435</v>
+        <v>0.9737544815952189</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9240435272075253</v>
+        <v>0.9713969387435539</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9066516500182459</v>
+        <v>0.982467461642637</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7662955723217764</v>
+        <v>0.9542556545693949</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8713854717488634</v>
+        <v>0.9727039799339329</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07086474783175196</v>
+        <v>0.02449903938575221</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07090203324795713</v>
+        <v>0.02669970215361053</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04869596896121521</v>
+        <v>0.02464458860253746</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1154838162652407</v>
+        <v>0.04139378614285637</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08208989261322798</v>
+        <v>0.03301918737269691</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03253814807137895</v>
+        <v>0.01895913190636823</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2662043347350903</v>
+        <v>0.1565216898252514</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3926677649083476</v>
+        <v>0.7900358527617515</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2775372043837037</v>
+        <v>0.1631851422056775</v>
       </c>
       <c r="P23" t="n">
-        <v>47.29396435760219</v>
+        <v>49.41824274188989</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.8903566798344</v>
+        <v>75.0146350641221</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.907334638791354</v>
+        <v>0.8847986897842153</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9073042411673009</v>
+        <v>0.8797556302035136</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8857908150268031</v>
+        <v>0.9198044342735556</v>
       </c>
       <c r="E24" t="n">
-        <v>0.715006818770214</v>
+        <v>0.8232788048613703</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8430066505570655</v>
+        <v>0.887307837264405</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08649904714901796</v>
+        <v>0.1075353663333486</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08652742199677008</v>
+        <v>0.1122428410872021</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05957820280302262</v>
+        <v>0.1127267874617808</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1408278846274241</v>
+        <v>0.1599139585367033</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1002030437152234</v>
+        <v>0.136320372999242</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03593164114705455</v>
+        <v>0.04041197774962291</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2941072034973267</v>
+        <v>0.3279258549327096</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2586771103308321</v>
+        <v>0.0783895182737222</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3066279560360496</v>
+        <v>0.3418863374772963</v>
       </c>
       <c r="P24" t="n">
-        <v>46.89524376144653</v>
+        <v>46.45987099274411</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.49163608367874</v>
+        <v>72.05626331497632</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8909346116629611</v>
+        <v>0.7580012842772297</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8908331639725903</v>
+        <v>0.7515863342880077</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8686330084022493</v>
+        <v>0.8289689619884987</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6609974817221858</v>
+        <v>0.6240411315159575</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8150879488844429</v>
+        <v>0.7600121108222171</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1018077525953814</v>
+        <v>0.2258951786112783</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1019024495613036</v>
+        <v>0.2318832528424565</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06852872007510205</v>
+        <v>0.2404095450496058</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1675163150445391</v>
+        <v>0.340202944299357</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1180225175598206</v>
+        <v>0.2903062446744814</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03883580667477004</v>
+        <v>0.05849266189493305</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3190732715151512</v>
+        <v>0.4752843134496217</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1274768933036885</v>
+        <v>-0.9359897257821626</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3326568812562784</v>
+        <v>0.4955181506473347</v>
       </c>
       <c r="P25" t="n">
-        <v>46.56933804520891</v>
+        <v>44.97536839751635</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.16573036744111</v>
+        <v>70.57176071974855</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8343846616163704</v>
+        <v>0.7408698773162703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8373808193575513</v>
+        <v>0.7423392364705892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7881795150192605</v>
+        <v>0.7058440617497622</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7529376904467638</v>
+        <v>0.7299139767222548</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8178004008404657</v>
+        <v>0.7280750475461966</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1545946487079524</v>
+        <v>0.2418865950274783</v>
       </c>
       <c r="H26" t="n">
-        <v>0.151797866972685</v>
+        <v>0.2405150127543342</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1104979762790427</v>
+        <v>0.4134798929515008</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1220845434806904</v>
+        <v>0.2443992362879813</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1162912598798665</v>
+        <v>0.3289395646197411</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04554282048104649</v>
+        <v>0.05742596016016951</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3931852600339342</v>
+        <v>0.4918196773488006</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.324922707069037</v>
+        <v>-1.073040981469838</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4099239705592718</v>
+        <v>0.5127574592206237</v>
       </c>
       <c r="P26" t="n">
-        <v>45.73389751443725</v>
+        <v>44.83857255649797</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.33028983666945</v>
+        <v>70.43496487873017</v>
       </c>
     </row>
   </sheetData>
